--- a/data/trans_orig/P33B_R3-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R3-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>137606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>118613</v>
+        <v>118035</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>160308</v>
+        <v>159903</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2759081125525879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2378259691290357</v>
+        <v>0.236667474388515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3214257841883001</v>
+        <v>0.3206146449407666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>343</v>
@@ -762,19 +762,19 @@
         <v>220293</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>199635</v>
+        <v>200777</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>241715</v>
+        <v>242535</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3532719397212795</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3201438256726717</v>
+        <v>0.3219742943128647</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.387625009035274</v>
+        <v>0.3889394109898535</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>487</v>
@@ -783,19 +783,19 @@
         <v>357900</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>327486</v>
+        <v>327365</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>387373</v>
+        <v>388499</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3188927987013794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2917942130189262</v>
+        <v>0.2916856046531485</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3451540786915187</v>
+        <v>0.3461571586908725</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>361133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>338431</v>
+        <v>338836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>380126</v>
+        <v>380704</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7240918874474122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6785742158116999</v>
+        <v>0.6793853550592335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7621740308709644</v>
+        <v>0.763332525611485</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>518</v>
@@ -833,19 +833,19 @@
         <v>403287</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>381865</v>
+        <v>381045</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>423945</v>
+        <v>422803</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6467280602787204</v>
+        <v>0.6467280602787203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6123749909647258</v>
+        <v>0.6110605890101465</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.679856174327328</v>
+        <v>0.6780257056871354</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>829</v>
@@ -854,19 +854,19 @@
         <v>764420</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>734947</v>
+        <v>733821</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>794834</v>
+        <v>794955</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6811072012986208</v>
+        <v>0.6811072012986207</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6548459213084814</v>
+        <v>0.6538428413091272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7082057869810737</v>
+        <v>0.7083143953468514</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>154465</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133835</v>
+        <v>131821</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>176656</v>
+        <v>177497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1608777852086905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1393919756483678</v>
+        <v>0.1372938711538805</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1839906695325914</v>
+        <v>0.1848666321469324</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>447</v>
@@ -979,19 +979,19 @@
         <v>276529</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>252442</v>
+        <v>253459</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>299200</v>
+        <v>299636</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2478193966189399</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2262334695886041</v>
+        <v>0.2271444692724449</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2681362649837079</v>
+        <v>0.2685276874818046</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>630</v>
@@ -1000,19 +1000,19 @@
         <v>430994</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>397825</v>
+        <v>399223</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>467341</v>
+        <v>464558</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2076091878949488</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1916319345324091</v>
+        <v>0.1923051366627441</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2251175229670833</v>
+        <v>0.2237769492383011</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>805672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>783481</v>
+        <v>782640</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>826302</v>
+        <v>828316</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8391222147913096</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8160093304674086</v>
+        <v>0.8151333678530677</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8606080243516322</v>
+        <v>0.8627061288461196</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1160</v>
@@ -1050,19 +1050,19 @@
         <v>839320</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>816649</v>
+        <v>816213</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>863407</v>
+        <v>862390</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7521806033810601</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7318637350162921</v>
+        <v>0.7314723125181954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7737665304113974</v>
+        <v>0.7728555307275553</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1887</v>
@@ -1071,19 +1071,19 @@
         <v>1644992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1608645</v>
+        <v>1611428</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1678161</v>
+        <v>1676763</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7923908121050512</v>
+        <v>0.7923908121050511</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7748824770329167</v>
+        <v>0.7762230507616988</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8083680654675909</v>
+        <v>0.8076948633372559</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>138358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116863</v>
+        <v>116855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165196</v>
+        <v>161496</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1323377719478432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1117777257459075</v>
+        <v>0.111770253681392</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1580077012462387</v>
+        <v>0.1544694161902436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>274</v>
@@ -1196,19 +1196,19 @@
         <v>181766</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>160557</v>
+        <v>162878</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203592</v>
+        <v>202821</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1735003645913374</v>
+        <v>0.1735003645913375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1532555400205123</v>
+        <v>0.155470599262641</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.19433400346647</v>
+        <v>0.1935974297409422</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>430</v>
@@ -1217,19 +1217,19 @@
         <v>320124</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>291484</v>
+        <v>287484</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>357051</v>
+        <v>352118</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1529402101591245</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1392573708807578</v>
+        <v>0.1373461470421261</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.170581904487455</v>
+        <v>0.1682251032598272</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>907133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>880295</v>
+        <v>883995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>928628</v>
+        <v>928636</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8676622280521568</v>
+        <v>0.8676622280521569</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8419922987537615</v>
+        <v>0.8455305838097567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8882222742540925</v>
+        <v>0.8882297463186083</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1242</v>
@@ -1267,19 +1267,19 @@
         <v>865876</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>844050</v>
+        <v>844821</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>887085</v>
+        <v>884764</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8264996354086627</v>
+        <v>0.8264996354086628</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8056659965335301</v>
+        <v>0.806402570259058</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8467444599794878</v>
+        <v>0.844529400737359</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2114</v>
@@ -1288,19 +1288,19 @@
         <v>1773009</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1736082</v>
+        <v>1741015</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1801649</v>
+        <v>1805649</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8470597898408754</v>
+        <v>0.8470597898408755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8294180955125452</v>
+        <v>0.8317748967401731</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8607426291192422</v>
+        <v>0.8626538529578738</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>111968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92399</v>
+        <v>93372</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134191</v>
+        <v>137938</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1147298105865621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0946783344867493</v>
+        <v>0.0956747608227302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1375006146488317</v>
+        <v>0.1413402941966362</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>209</v>
@@ -1413,19 +1413,19 @@
         <v>136888</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118878</v>
+        <v>119550</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>155592</v>
+        <v>154548</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1507165093422523</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1308864279760616</v>
+        <v>0.1316270979364464</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1713094451654044</v>
+        <v>0.1701601548967274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>318</v>
@@ -1434,19 +1434,19 @@
         <v>248857</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221684</v>
+        <v>220875</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>276755</v>
+        <v>279706</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1320768510025881</v>
+        <v>0.132076851002588</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1176553876322348</v>
+        <v>0.1172261692480819</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1468837129823087</v>
+        <v>0.1484495616561534</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>863961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>841738</v>
+        <v>837991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>883530</v>
+        <v>882557</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8852701894134377</v>
+        <v>0.8852701894134378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8624993853511683</v>
+        <v>0.8586597058033638</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.90532166551325</v>
+        <v>0.9043252391772698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1111</v>
@@ -1484,19 +1484,19 @@
         <v>771363</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>752659</v>
+        <v>753703</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>789373</v>
+        <v>788701</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8492834906577478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8286905548345955</v>
+        <v>0.8298398451032725</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8691135720239379</v>
+        <v>0.8683729020635534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1949</v>
@@ -1505,19 +1505,19 @@
         <v>1635323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1607425</v>
+        <v>1604474</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1662496</v>
+        <v>1663305</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.867923148997412</v>
+        <v>0.8679231489974119</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8531162870176914</v>
+        <v>0.8515504383438467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8823446123677653</v>
+        <v>0.8827738307519181</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>542397</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>500967</v>
+        <v>499480</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>588834</v>
+        <v>591392</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1558479432753019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1439437799435648</v>
+        <v>0.1435164173005686</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1691907921308202</v>
+        <v>0.1699256501213635</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1273</v>
@@ -1630,19 +1630,19 @@
         <v>815477</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>774690</v>
+        <v>775551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>855799</v>
+        <v>859144</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2206782306805302</v>
+        <v>0.2206782306805303</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2096407141223484</v>
+        <v>0.2098738119766767</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2315898270509746</v>
+        <v>0.2324949901510178</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1865</v>
@@ -1651,19 +1651,19 @@
         <v>1357874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1299674</v>
+        <v>1301464</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1419988</v>
+        <v>1422217</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1892344421775301</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1811236426128648</v>
+        <v>0.1813730294690171</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1978906114040166</v>
+        <v>0.1982012300277575</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2937900</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2891463</v>
+        <v>2888905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2979330</v>
+        <v>2980817</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.844152056724698</v>
+        <v>0.8441520567246981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8308092078691798</v>
+        <v>0.8300743498786364</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8560562200564351</v>
+        <v>0.8564835826994314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4031</v>
@@ -1701,19 +1701,19 @@
         <v>2879845</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2839523</v>
+        <v>2836178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2920632</v>
+        <v>2919771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7793217693194696</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7684101729490255</v>
+        <v>0.7675050098489822</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7903592858776518</v>
+        <v>0.7901261880233234</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6779</v>
@@ -1722,19 +1722,19 @@
         <v>5817745</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5755631</v>
+        <v>5753402</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5875945</v>
+        <v>5874155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8107655578224698</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8021093885959835</v>
+        <v>0.8017987699722423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8188763573871353</v>
+        <v>0.8186269705309828</v>
       </c>
     </row>
     <row r="18">
